--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Lamp1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Lamp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>3.701348</v>
       </c>
       <c r="I2">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J2">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.22650766666666</v>
+        <v>63.35774233333333</v>
       </c>
       <c r="N2">
-        <v>189.679523</v>
+        <v>190.073227</v>
       </c>
       <c r="O2">
-        <v>0.06017345094148421</v>
+        <v>0.0735795013589348</v>
       </c>
       <c r="P2">
-        <v>0.06017345094148421</v>
+        <v>0.0735795013589348</v>
       </c>
       <c r="Q2">
-        <v>78.00776923300045</v>
+        <v>78.16968428999955</v>
       </c>
       <c r="R2">
-        <v>702.069923097004</v>
+        <v>703.527158609996</v>
       </c>
       <c r="S2">
-        <v>0.04934818832882606</v>
+        <v>0.06611356814097516</v>
       </c>
       <c r="T2">
-        <v>0.04934818832882607</v>
+        <v>0.06611356814097515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>3.701348</v>
       </c>
       <c r="I3">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J3">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>322.866342</v>
       </c>
       <c r="O3">
-        <v>0.1024252997040354</v>
+        <v>0.1249852218794776</v>
       </c>
       <c r="P3">
-        <v>0.1024252997040354</v>
+        <v>0.1249852218794776</v>
       </c>
       <c r="Q3">
         <v>132.782298803224</v>
@@ -638,10 +638,10 @@
         <v>1195.040689229016</v>
       </c>
       <c r="S3">
-        <v>0.08399888821976406</v>
+        <v>0.1123032751069375</v>
       </c>
       <c r="T3">
-        <v>0.08399888821976408</v>
+        <v>0.1123032751069375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>3.701348</v>
       </c>
       <c r="I4">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J4">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>449.3431903333333</v>
+        <v>309.6380613333334</v>
       </c>
       <c r="N4">
-        <v>1348.029571</v>
+        <v>928.9141840000001</v>
       </c>
       <c r="O4">
-        <v>0.4276454831565478</v>
+        <v>0.359593213324893</v>
       </c>
       <c r="P4">
-        <v>0.4276454831565478</v>
+        <v>0.359593213324893</v>
       </c>
       <c r="Q4">
-        <v>554.3918396179675</v>
+        <v>382.0260730133369</v>
       </c>
       <c r="R4">
-        <v>4989.526556561708</v>
+        <v>3438.234657120033</v>
       </c>
       <c r="S4">
-        <v>0.3507116429354085</v>
+        <v>0.3231061637155365</v>
       </c>
       <c r="T4">
-        <v>0.3507116429354086</v>
+        <v>0.3231061637155365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +732,10 @@
         <v>3.701348</v>
       </c>
       <c r="I5">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J5">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.27942433333333</v>
+        <v>24.96432</v>
       </c>
       <c r="N5">
-        <v>78.838273</v>
+        <v>74.89296</v>
       </c>
       <c r="O5">
-        <v>0.02501045383099598</v>
+        <v>0.02899191400635635</v>
       </c>
       <c r="P5">
-        <v>0.02501045383099598</v>
+        <v>0.02899191400635635</v>
       </c>
       <c r="Q5">
-        <v>32.42309823244489</v>
+        <v>30.80054530112</v>
       </c>
       <c r="R5">
-        <v>291.807884092004</v>
+        <v>277.20490771008</v>
       </c>
       <c r="S5">
-        <v>0.02051104875207538</v>
+        <v>0.02605017493725892</v>
       </c>
       <c r="T5">
-        <v>0.02051104875207538</v>
+        <v>0.02605017493725892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>3.701348</v>
       </c>
       <c r="I6">
-        <v>0.8200990230195506</v>
+        <v>0.8985324298198297</v>
       </c>
       <c r="J6">
-        <v>0.8200990230195507</v>
+        <v>0.8985324298198296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>404.2663676666666</v>
+        <v>355.4964753333334</v>
       </c>
       <c r="N6">
-        <v>1212.799103</v>
+        <v>1066.489426</v>
       </c>
       <c r="O6">
-        <v>0.3847453123669367</v>
+        <v>0.4128501494303382</v>
       </c>
       <c r="P6">
-        <v>0.3847453123669367</v>
+        <v>0.4128501494303383</v>
       </c>
       <c r="Q6">
-        <v>498.776837143427</v>
+        <v>438.6053893273609</v>
       </c>
       <c r="R6">
-        <v>4488.991534290843</v>
+        <v>3947.448503946249</v>
       </c>
       <c r="S6">
-        <v>0.3155292547834766</v>
+        <v>0.3709592479191216</v>
       </c>
       <c r="T6">
-        <v>0.3155292547834767</v>
+        <v>0.3709592479191216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H7">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I7">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J7">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.22650766666666</v>
+        <v>63.35774233333333</v>
       </c>
       <c r="N7">
-        <v>189.679523</v>
+        <v>190.073227</v>
       </c>
       <c r="O7">
-        <v>0.06017345094148421</v>
+        <v>0.0735795013589348</v>
       </c>
       <c r="P7">
-        <v>0.06017345094148421</v>
+        <v>0.0735795013589348</v>
       </c>
       <c r="Q7">
-        <v>5.614808937835777</v>
+        <v>4.77654019451</v>
       </c>
       <c r="R7">
-        <v>50.53328044052199</v>
+        <v>42.98886175059</v>
       </c>
       <c r="S7">
-        <v>0.003551962216315749</v>
+        <v>0.004039854049509625</v>
       </c>
       <c r="T7">
-        <v>0.00355196221631575</v>
+        <v>0.004039854049509624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H8">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I8">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J8">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>322.866342</v>
       </c>
       <c r="O8">
-        <v>0.1024252997040354</v>
+        <v>0.1249852218794776</v>
       </c>
       <c r="P8">
-        <v>0.1024252997040354</v>
+        <v>0.1249852218794776</v>
       </c>
       <c r="Q8">
-        <v>9.557345959732</v>
+        <v>8.11363117446</v>
       </c>
       <c r="R8">
-        <v>86.01611363758801</v>
+        <v>73.02268057014</v>
       </c>
       <c r="S8">
-        <v>0.006046035067813192</v>
+        <v>0.0068622652425376</v>
       </c>
       <c r="T8">
-        <v>0.006046035067813193</v>
+        <v>0.006862265242537599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H9">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I9">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J9">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>449.3431903333333</v>
+        <v>309.6380613333334</v>
       </c>
       <c r="N9">
-        <v>1348.029571</v>
+        <v>928.9141840000001</v>
       </c>
       <c r="O9">
-        <v>0.4276454831565478</v>
+        <v>0.359593213324893</v>
       </c>
       <c r="P9">
-        <v>0.4276454831565478</v>
+        <v>0.359593213324893</v>
       </c>
       <c r="Q9">
-        <v>39.90377223648822</v>
+        <v>23.34361344392</v>
       </c>
       <c r="R9">
-        <v>359.133950128394</v>
+        <v>210.09252099528</v>
       </c>
       <c r="S9">
-        <v>0.02524336853519148</v>
+        <v>0.01974332622805067</v>
       </c>
       <c r="T9">
-        <v>0.02524336853519148</v>
+        <v>0.01974332622805067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H10">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I10">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J10">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.27942433333333</v>
+        <v>24.96432</v>
       </c>
       <c r="N10">
-        <v>78.838273</v>
+        <v>74.89296</v>
       </c>
       <c r="O10">
-        <v>0.02501045383099598</v>
+        <v>0.02899191400635635</v>
       </c>
       <c r="P10">
-        <v>0.02501045383099598</v>
+        <v>0.02899191400635635</v>
       </c>
       <c r="Q10">
-        <v>2.333735518113556</v>
+        <v>1.8820600848</v>
       </c>
       <c r="R10">
-        <v>21.003619663022</v>
+        <v>16.9385407632</v>
       </c>
       <c r="S10">
-        <v>0.001476335254678947</v>
+        <v>0.00159178981969808</v>
       </c>
       <c r="T10">
-        <v>0.001476335254678947</v>
+        <v>0.00159178981969808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08880466666666666</v>
+        <v>0.07539</v>
       </c>
       <c r="H11">
-        <v>0.266414</v>
+        <v>0.22617</v>
       </c>
       <c r="I11">
-        <v>0.05902872713366334</v>
+        <v>0.05490461303621029</v>
       </c>
       <c r="J11">
-        <v>0.05902872713366335</v>
+        <v>0.05490461303621028</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>404.2663676666666</v>
+        <v>355.4964753333334</v>
       </c>
       <c r="N11">
-        <v>1212.799103</v>
+        <v>1066.489426</v>
       </c>
       <c r="O11">
-        <v>0.3847453123669367</v>
+        <v>0.4128501494303382</v>
       </c>
       <c r="P11">
-        <v>0.3847453123669367</v>
+        <v>0.4128501494303383</v>
       </c>
       <c r="Q11">
-        <v>35.90074002518244</v>
+        <v>26.80087927538</v>
       </c>
       <c r="R11">
-        <v>323.106660226642</v>
+        <v>241.20791347842</v>
       </c>
       <c r="S11">
-        <v>0.02271102605966397</v>
+        <v>0.02266737769641431</v>
       </c>
       <c r="T11">
-        <v>0.02271102605966398</v>
+        <v>0.02266737769641431</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H12">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I12">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J12">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.22650766666666</v>
+        <v>63.35774233333333</v>
       </c>
       <c r="N12">
-        <v>189.679523</v>
+        <v>190.073227</v>
       </c>
       <c r="O12">
-        <v>0.06017345094148421</v>
+        <v>0.0735795013589348</v>
       </c>
       <c r="P12">
-        <v>0.06017345094148421</v>
+        <v>0.0735795013589348</v>
       </c>
       <c r="Q12">
-        <v>6.175880966869778</v>
+        <v>4.050840613824001</v>
       </c>
       <c r="R12">
-        <v>55.582928701828</v>
+        <v>36.457565524416</v>
       </c>
       <c r="S12">
-        <v>0.003906899787624907</v>
+        <v>0.003426079168450025</v>
       </c>
       <c r="T12">
-        <v>0.003906899787624907</v>
+        <v>0.003426079168450024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H13">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I13">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J13">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>322.866342</v>
       </c>
       <c r="O13">
-        <v>0.1024252997040354</v>
+        <v>0.1249852218794776</v>
       </c>
       <c r="P13">
-        <v>0.1024252997040354</v>
+        <v>0.1249852218794776</v>
       </c>
       <c r="Q13">
-        <v>10.512384599368</v>
+        <v>6.880927480704001</v>
       </c>
       <c r="R13">
-        <v>94.61146139431202</v>
+        <v>61.928347326336</v>
       </c>
       <c r="S13">
-        <v>0.0066501983083911</v>
+        <v>0.005819681530002441</v>
       </c>
       <c r="T13">
-        <v>0.0066501983083911</v>
+        <v>0.00581968153000244</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H14">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I14">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J14">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>449.3431903333333</v>
+        <v>309.6380613333334</v>
       </c>
       <c r="N14">
-        <v>1348.029571</v>
+        <v>928.9141840000001</v>
       </c>
       <c r="O14">
-        <v>0.4276454831565478</v>
+        <v>0.359593213324893</v>
       </c>
       <c r="P14">
-        <v>0.4276454831565478</v>
+        <v>0.359593213324893</v>
       </c>
       <c r="Q14">
-        <v>43.89124370750623</v>
+        <v>19.79701908940801</v>
       </c>
       <c r="R14">
-        <v>395.021193367556</v>
+        <v>178.173171804672</v>
       </c>
       <c r="S14">
-        <v>0.02776586719195828</v>
+        <v>0.01674372338130584</v>
       </c>
       <c r="T14">
-        <v>0.02776586719195828</v>
+        <v>0.01674372338130584</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H15">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I15">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J15">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.27942433333333</v>
+        <v>24.96432</v>
       </c>
       <c r="N15">
-        <v>78.838273</v>
+        <v>74.89296</v>
       </c>
       <c r="O15">
-        <v>0.02501045383099598</v>
+        <v>0.02899191400635635</v>
       </c>
       <c r="P15">
-        <v>0.02501045383099598</v>
+        <v>0.02899191400635635</v>
       </c>
       <c r="Q15">
-        <v>2.566939129647556</v>
+        <v>1.59611876352</v>
       </c>
       <c r="R15">
-        <v>23.102452166828</v>
+        <v>14.36506887168</v>
       </c>
       <c r="S15">
-        <v>0.001623861274895838</v>
+        <v>0.001349949249399343</v>
       </c>
       <c r="T15">
-        <v>0.001623861274895838</v>
+        <v>0.001349949249399343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09767866666666668</v>
+        <v>0.06393600000000001</v>
       </c>
       <c r="H16">
-        <v>0.293036</v>
+        <v>0.191808</v>
       </c>
       <c r="I16">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395996</v>
       </c>
       <c r="J16">
-        <v>0.06492730143438473</v>
+        <v>0.04656295714395995</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>404.2663676666666</v>
+        <v>355.4964753333334</v>
       </c>
       <c r="N16">
-        <v>1212.799103</v>
+        <v>1066.489426</v>
       </c>
       <c r="O16">
-        <v>0.3847453123669367</v>
+        <v>0.4128501494303382</v>
       </c>
       <c r="P16">
-        <v>0.3847453123669367</v>
+        <v>0.4128501494303383</v>
       </c>
       <c r="Q16">
-        <v>39.48819977185644</v>
+        <v>22.729022646912</v>
       </c>
       <c r="R16">
-        <v>355.393797946708</v>
+        <v>204.561203822208</v>
       </c>
       <c r="S16">
-        <v>0.02498047487151461</v>
+        <v>0.0192235238148023</v>
       </c>
       <c r="T16">
-        <v>0.02498047487151461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.252496</v>
-      </c>
-      <c r="I17">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J17">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>63.22650766666666</v>
-      </c>
-      <c r="N17">
-        <v>189.679523</v>
-      </c>
-      <c r="O17">
-        <v>0.06017345094148421</v>
-      </c>
-      <c r="P17">
-        <v>0.06017345094148421</v>
-      </c>
-      <c r="Q17">
-        <v>5.321480093267555</v>
-      </c>
-      <c r="R17">
-        <v>47.893320839408</v>
-      </c>
-      <c r="S17">
-        <v>0.00336640060871749</v>
-      </c>
-      <c r="T17">
-        <v>0.00336640060871749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.252496</v>
-      </c>
-      <c r="I18">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J18">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>107.622114</v>
-      </c>
-      <c r="N18">
-        <v>322.866342</v>
-      </c>
-      <c r="O18">
-        <v>0.1024252997040354</v>
-      </c>
-      <c r="P18">
-        <v>0.1024252997040354</v>
-      </c>
-      <c r="Q18">
-        <v>9.058051098848001</v>
-      </c>
-      <c r="R18">
-        <v>81.522459889632</v>
-      </c>
-      <c r="S18">
-        <v>0.005730178108066993</v>
-      </c>
-      <c r="T18">
-        <v>0.005730178108066993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.252496</v>
-      </c>
-      <c r="I19">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J19">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>449.3431903333333</v>
-      </c>
-      <c r="N19">
-        <v>1348.029571</v>
-      </c>
-      <c r="O19">
-        <v>0.4276454831565478</v>
-      </c>
-      <c r="P19">
-        <v>0.4276454831565478</v>
-      </c>
-      <c r="Q19">
-        <v>37.81911939546844</v>
-      </c>
-      <c r="R19">
-        <v>340.372074559216</v>
-      </c>
-      <c r="S19">
-        <v>0.02392460449398946</v>
-      </c>
-      <c r="T19">
-        <v>0.02392460449398946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.252496</v>
-      </c>
-      <c r="I20">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J20">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>26.27942433333333</v>
-      </c>
-      <c r="N20">
-        <v>78.838273</v>
-      </c>
-      <c r="O20">
-        <v>0.02501045383099598</v>
-      </c>
-      <c r="P20">
-        <v>0.02501045383099598</v>
-      </c>
-      <c r="Q20">
-        <v>2.211816508823111</v>
-      </c>
-      <c r="R20">
-        <v>19.906348579408</v>
-      </c>
-      <c r="S20">
-        <v>0.001399208549345813</v>
-      </c>
-      <c r="T20">
-        <v>0.001399208549345813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.08416533333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.252496</v>
-      </c>
-      <c r="I21">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="J21">
-        <v>0.05594494841240123</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>404.2663676666666</v>
-      </c>
-      <c r="N21">
-        <v>1212.799103</v>
-      </c>
-      <c r="O21">
-        <v>0.3847453123669367</v>
-      </c>
-      <c r="P21">
-        <v>0.3847453123669367</v>
-      </c>
-      <c r="Q21">
-        <v>34.02521359012088</v>
-      </c>
-      <c r="R21">
-        <v>306.2269223110879</v>
-      </c>
-      <c r="S21">
-        <v>0.02152455665228147</v>
-      </c>
-      <c r="T21">
-        <v>0.02152455665228147</v>
+        <v>0.0192235238148023</v>
       </c>
     </row>
   </sheetData>
